--- a/src/main/resources/sample-file/SpreadSheet1.xlsx
+++ b/src/main/resources/sample-file/SpreadSheet1.xlsx
@@ -11,22 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
-  <si>
-    <t>hash</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>59f52d9d67b9a1d1c3ceb76b</t>
   </si>
@@ -49,13 +34,7 @@
     <t>Sao Jose dos Campos</t>
   </si>
   <si>
-    <t>59f52d9d67b9a1d1c3ceb76g</t>
-  </si>
-  <si>
     <t>Itu</t>
-  </si>
-  <si>
-    <t>59f52d9d67b9a1d1c3ceb76h</t>
   </si>
   <si>
     <t>Itapeva</t>
@@ -134,136 +113,119 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>1.510766301005E12</v>
+      </c>
+      <c r="C1" s="1">
+        <v>-73.856077</v>
+      </c>
+      <c r="D1" s="1">
+        <v>40.848447</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1.510766301005E12</v>
+        <v>1.510766321318E12</v>
       </c>
       <c r="C2" s="1">
-        <v>-73.856077</v>
+        <v>-73.961704</v>
       </c>
       <c r="D2" s="1">
-        <v>40.848447</v>
+        <v>40.662942</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>1.510766321318E12</v>
+        <v>1.510766333986E12</v>
       </c>
       <c r="C3" s="1">
-        <v>-73.961704</v>
+        <v>-73.9851355999999</v>
       </c>
       <c r="D3" s="1">
-        <v>40.662942</v>
+        <v>40.7676919</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.510766341886E12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-73.9824199999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>40.579505</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>1.510766333986E12</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-73.9851355999999</v>
-      </c>
-      <c r="D4" s="1">
-        <v>40.7676919</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B5" s="1">
-        <v>1.510766341886E12</v>
+        <v>1.510766349451E12</v>
       </c>
       <c r="C5" s="1">
-        <v>-73.9824199999999</v>
+        <v>-73.8601152</v>
       </c>
       <c r="D5" s="1">
-        <v>40.579505</v>
+        <v>40.7311739</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1.510766349451E12</v>
+        <v>1.510766373139E12</v>
       </c>
       <c r="C6" s="1">
-        <v>-73.8601152</v>
+        <v>-73.8803827</v>
       </c>
       <c r="D6" s="1">
-        <v>40.7311739</v>
+        <v>40.7643124</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1.510766373139E12</v>
+        <v>1.510766379782E12</v>
       </c>
       <c r="C7" s="1">
-        <v>-73.8803827</v>
+        <v>-73.9068506</v>
       </c>
       <c r="D7" s="1">
-        <v>40.7643124</v>
+        <v>40.6199034</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.510766379782E12</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-73.9068506</v>
-      </c>
-      <c r="D8" s="1">
-        <v>40.6199034</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
